--- a/Data/Commodore 128/Data_C128.xlsx
+++ b/Data/Commodore 128/Data_C128.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\Debug\Data\Commodore 128\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 128\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB026D7-61DA-4295-B5AC-CAB80B033F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8001EA72-CA59-4D68-9E6B-23862A07E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17748" yWindow="3756" windowWidth="17280" windowHeight="10044" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
@@ -34,28 +34,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Folder name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Board name in drop-down</t>
   </si>
   <si>
-    <t>Data file</t>
-  </si>
-  <si>
-    <t># Commodore 128 or 128D</t>
-  </si>
-  <si>
-    <t>Data_310378.xlsx</t>
+    <r>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Commodore 128 or 128D</t>
+    </r>
+  </si>
+  <si>
+    <t>310378\Data_310378.xlsx</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Excel data file</t>
+  </si>
+  <si>
+    <t>Boards</t>
+  </si>
+  <si>
+    <t>Test only</t>
+  </si>
+  <si>
+    <t># Boards definition</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +99,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -104,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -115,8 +151,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,53 +480,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B7" s="1">
+        <v>310378</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>310378</v>
-      </c>
-      <c r="B4" s="1">
-        <v>310378</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Commodore 128/Data_C128.xlsx
+++ b/Data/Commodore 128/Data_C128.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\Visual Studio\Commodore-Repair-Toolbox\bin\x64\Debug\Data\Commodore 128\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8001EA72-CA59-4D68-9E6B-23862A07E0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E6841A-711C-405F-B521-1320358248A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
+    <workbookView xWindow="-21228" yWindow="1812" windowWidth="17280" windowHeight="10044" xr2:uid="{EBC5E150-CC27-441B-9E4F-9F7CF77570D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Board" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Board name in drop-down</t>
   </si>
@@ -55,9 +55,6 @@
     </r>
   </si>
   <si>
-    <t>310378\Data_310378.xlsx</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -67,10 +64,10 @@
     <t>Boards</t>
   </si>
   <si>
-    <t>Test only</t>
-  </si>
-  <si>
     <t># Boards definition</t>
+  </si>
+  <si>
+    <t>310378\!Data_310378.xlsx</t>
   </si>
 </sst>
 </file>
@@ -480,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1251FF9-425C-410E-B269-C7726F9C2504}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -505,52 +502,41 @@
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>123456</v>
+        <v>310378</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>310378</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
